--- a/SpreadsheetForVariousThings.xlsx
+++ b/SpreadsheetForVariousThings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orang\OneDrive\Documents\HighSpeedVideoGaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016E5E0-D349-4C74-8E26-E2D535B6879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF4984-1DBF-4780-AAC2-CE03B8C02691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{08B7A33C-325D-4BB7-9BCB-7058D0F45080}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>Landing on general surfaces; so probably a concrete-esque sound.</t>
+  </si>
+  <si>
+    <t>MagnetDistanceWarning</t>
+  </si>
+  <si>
+    <t>A quick, looping, beeping warning sound for when you're about to be too far from the magnet (and hence detach)</t>
+  </si>
+  <si>
+    <t>MagnetDisconnectBeep</t>
+  </si>
+  <si>
+    <t>A quick beep sound for when you disconnect from the magnetic surface.</t>
   </si>
 </sst>
 </file>
@@ -679,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B63465-CF96-4C9D-A9EC-B9DD57D6F841}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,32 +977,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>7</v>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
